--- a/Results.xlsx
+++ b/Results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
@@ -509,27 +509,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>102</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>83</v>
+      </c>
+      <c r="I2" t="n">
+        <v>14</v>
+      </c>
+      <c r="J2" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>49</v>
+        <v>75</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>38</v>
+      </c>
+      <c r="J3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>100</v>
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>26</v>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="n">
+        <v>98</v>
+      </c>
+      <c r="E5" t="n">
+        <v>63</v>
+      </c>
+      <c r="I5" t="n">
+        <v>221</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>100</v>
+        <v>68</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>81</v>
+      </c>
+      <c r="E6" t="n">
+        <v>83</v>
+      </c>
+      <c r="I6" t="n">
+        <v>64</v>
+      </c>
+      <c r="J6" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>24</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>34</v>
+      </c>
+      <c r="E7" t="n">
+        <v>33</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>19</v>
+      </c>
+      <c r="B8" t="n">
+        <v>48</v>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="E8" t="n">
+        <v>97</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>22</v>
+      </c>
+      <c r="B9" t="n">
+        <v>30</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13</v>
+      </c>
+      <c r="E9" t="n">
+        <v>54</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>115</v>
+      </c>
+      <c r="B10" t="n">
+        <v>54</v>
+      </c>
+      <c r="C10" t="n">
+        <v>62</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>64</v>
+      </c>
+      <c r="J10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>27</v>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+      <c r="E11" t="n">
+        <v>57</v>
+      </c>
+      <c r="I11" t="n">
+        <v>50</v>
+      </c>
+      <c r="J11" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B12" t="n">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>57</v>
+      </c>
+      <c r="I12" t="n">
+        <v>25</v>
+      </c>
+      <c r="J12" t="n">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
